--- a/exp_reproduce/results/FD vs Imputation w.o sparsity.xlsx
+++ b/exp_reproduce/results/FD vs Imputation w.o sparsity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/yzhang2373_wisc_edu/Documents/Database/Profiler/Profiler-Public/exp_reproduce/code/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yunjia\OneDrive - UW-Madison\Database\Profiler\Profiler-Public\exp_reproduce\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1094" documentId="8_{133B79E0-7036-48A2-BFFE-0842CC5A0963}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FFF1AD37-8627-4E9E-859D-1AB48D923329}"/>
+  <xr:revisionPtr revIDLastSave="1096" documentId="8_{133B79E0-7036-48A2-BFFE-0842CC5A0963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7EFC28F9-3D0F-43F5-84FA-0AFB903C4417}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{B06683AC-BE68-42AF-AC26-220C2A4E0DC5}"/>
+    <workbookView xWindow="5565" yWindow="3120" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{B06683AC-BE68-42AF-AC26-220C2A4E0DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="mcar_result" sheetId="1" r:id="rId1"/>
@@ -2718,19 +2718,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3095,65 +3095,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2543DAC-81E7-4BF8-A07E-57797B7FF241}">
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="21.58203125" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.08203125" customWidth="1"/>
-    <col min="7" max="7" width="20.08203125" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
     <col min="8" max="8" width="18.25" customWidth="1"/>
     <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.08203125" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C2" s="317" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="318" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317" t="s">
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318" t="s">
         <v>336</v>
       </c>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="317" t="s">
+      <c r="C3" s="318" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317" t="s">
+      <c r="D3" s="318"/>
+      <c r="E3" s="318" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="317"/>
-      <c r="G3" s="317" t="s">
+      <c r="F3" s="318"/>
+      <c r="G3" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="317"/>
-      <c r="I3" s="317" t="s">
+      <c r="H3" s="318"/>
+      <c r="I3" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="317"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="318"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="204" t="s">
         <v>11</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="204"/>
       <c r="B6" s="316" t="s">
         <v>13</v>
@@ -3257,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="204"/>
       <c r="B7" s="316" t="s">
         <v>38</v>
@@ -3295,9 +3295,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="317" t="s">
+    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="318" t="s">
         <v>338</v>
       </c>
       <c r="B9" s="316" t="s">
@@ -3336,8 +3336,8 @@
         <v>1.94174757281553E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="317"/>
+    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="318"/>
       <c r="B10" s="316" t="s">
         <v>13</v>
       </c>
@@ -3374,8 +3374,8 @@
         <v>0.79024390243902398</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="317"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="318"/>
       <c r="B11" s="316" t="s">
         <v>38</v>
       </c>
@@ -3412,8 +3412,8 @@
         <v>0.50449424291197154</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="204" t="s">
         <v>62</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>0.46232494711875899</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="204"/>
       <c r="B14" s="316" t="s">
         <v>13</v>
@@ -3491,7 +3491,7 @@
         <v>0.80882352941176405</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="204"/>
       <c r="B15" s="316" t="s">
         <v>38</v>
@@ -3529,8 +3529,8 @@
         <v>0.63557423826526149</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="204" t="s">
         <v>63</v>
       </c>
@@ -3548,7 +3548,7 @@
       <c r="E17" s="316"/>
       <c r="F17" s="316"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="204"/>
       <c r="B18" s="316" t="s">
         <v>13</v>
@@ -3564,7 +3564,7 @@
       <c r="E18" s="316"/>
       <c r="F18" s="316"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="204"/>
       <c r="B19" s="316" t="s">
         <v>38</v>
@@ -3580,8 +3580,8 @@
       <c r="E19" s="316"/>
       <c r="F19" s="316"/>
     </row>
-    <row r="20" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="204" t="s">
         <v>64</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>0.194444444444444</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="204"/>
       <c r="B22" s="316" t="s">
         <v>13</v>
@@ -3659,7 +3659,7 @@
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="204"/>
       <c r="B23" s="316" t="s">
         <v>38</v>
@@ -3697,8 +3697,8 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="204" t="s">
         <v>65</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="204"/>
       <c r="B26" s="316" t="s">
         <v>13</v>
@@ -3776,7 +3776,7 @@
         <v>0.25974025974025899</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="204"/>
       <c r="B27" s="316" t="s">
         <v>38</v>
@@ -3814,8 +3814,8 @@
         <v>0.1298701298701295</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="204" t="s">
         <v>128</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>2.4483660236001001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="204"/>
       <c r="B30" s="316" t="s">
         <v>13</v>
@@ -3893,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="204"/>
       <c r="B31" s="316" t="s">
         <v>38</v>
@@ -3931,42 +3931,42 @@
         <v>0.84885692693068404</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="319" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="317" t="s">
         <v>337</v>
       </c>
-      <c r="B33" s="319"/>
-      <c r="C33" s="319"/>
-      <c r="D33" s="319"/>
-      <c r="E33" s="319"/>
-      <c r="F33" s="319"/>
-      <c r="G33" s="319"/>
-      <c r="H33" s="319"/>
-      <c r="I33" s="319"/>
-      <c r="J33" s="319"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="317"/>
+      <c r="C33" s="317"/>
+      <c r="D33" s="317"/>
+      <c r="E33" s="317"/>
+      <c r="F33" s="317"/>
+      <c r="G33" s="317"/>
+      <c r="H33" s="317"/>
+      <c r="I33" s="317"/>
+      <c r="J33" s="317"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="317" t="s">
+      <c r="C34" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="317"/>
-      <c r="E34" s="317" t="s">
+      <c r="D34" s="318"/>
+      <c r="E34" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="317"/>
-      <c r="G34" s="317" t="s">
+      <c r="F34" s="318"/>
+      <c r="G34" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="317"/>
-      <c r="I34" s="317" t="s">
+      <c r="H34" s="318"/>
+      <c r="I34" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="317"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J34" s="318"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>10</v>
       </c>
@@ -3992,8 +3992,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="317" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="318" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
@@ -4032,8 +4032,8 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="317"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="318"/>
       <c r="B37" t="s">
         <v>13</v>
       </c>
@@ -4070,8 +4070,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="317"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="318"/>
       <c r="B38" t="s">
         <v>38</v>
       </c>
@@ -4108,9 +4108,9 @@
         <v>0.98901098901098905</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="320" t="s">
+    <row r="39" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="321" t="s">
         <v>338</v>
       </c>
       <c r="B40" t="s">
@@ -4149,8 +4149,8 @@
         <v>1.94174757281553E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="320"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="321"/>
       <c r="B41" t="s">
         <v>13</v>
       </c>
@@ -4187,8 +4187,8 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="320"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="321"/>
       <c r="B42" t="s">
         <v>38</v>
       </c>
@@ -4225,9 +4225,9 @@
         <v>0.32564703739955803</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="317" t="s">
+    <row r="43" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="318" t="s">
         <v>62</v>
       </c>
       <c r="B44" t="s">
@@ -4266,8 +4266,8 @@
         <v>0.80882352941176405</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="317"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="318"/>
       <c r="B45" t="s">
         <v>13</v>
       </c>
@@ -4304,8 +4304,8 @@
         <v>0.999592244625091</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="317"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="318"/>
       <c r="B46" t="s">
         <v>38</v>
       </c>
@@ -4342,9 +4342,9 @@
         <v>0.984615384615384</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="321" t="s">
+    <row r="47" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="320" t="s">
         <v>63</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -4359,8 +4359,8 @@
         <v>0.44943132996559099</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="321"/>
+    <row r="49" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="320"/>
       <c r="B49" s="7" t="s">
         <v>13</v>
       </c>
@@ -4373,8 +4373,8 @@
         <v>0.50640267133712702</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="321"/>
+    <row r="50" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="320"/>
       <c r="B50" s="7" t="s">
         <v>38</v>
       </c>
@@ -4387,9 +4387,9 @@
         <v>0.47530123591423001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="317" t="s">
+    <row r="51" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="318" t="s">
         <v>64</v>
       </c>
       <c r="B52" t="s">
@@ -4428,8 +4428,8 @@
         <v>0.194444444444444</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="317"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="318"/>
       <c r="B53" t="s">
         <v>13</v>
       </c>
@@ -4466,8 +4466,8 @@
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="317"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="318"/>
       <c r="B54" t="s">
         <v>38</v>
       </c>
@@ -4504,9 +4504,9 @@
         <v>0.43901789188384999</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="317" t="s">
+    <row r="55" spans="1:10" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="318" t="s">
         <v>65</v>
       </c>
       <c r="B56" t="s">
@@ -4545,8 +4545,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="317"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="318"/>
       <c r="B57" t="s">
         <v>13</v>
       </c>
@@ -4583,8 +4583,8 @@
         <v>1.0182511806487999</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="317"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="318"/>
       <c r="B58" t="s">
         <v>38</v>
       </c>
@@ -4621,9 +4621,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="317" t="s">
+    <row r="59" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="318" t="s">
         <v>128</v>
       </c>
       <c r="B60" t="s">
@@ -4662,8 +4662,8 @@
         <v>2.4483660236001001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="317"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="318"/>
       <c r="B61" t="s">
         <v>13</v>
       </c>
@@ -4700,8 +4700,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="317"/>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="318"/>
       <c r="B62" t="s">
         <v>38</v>
       </c>
@@ -4738,42 +4738,42 @@
         <v>0.85634879413451004</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="319" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="317" t="s">
         <v>237</v>
       </c>
-      <c r="B65" s="319"/>
-      <c r="C65" s="319"/>
-      <c r="D65" s="319"/>
-      <c r="E65" s="319"/>
-      <c r="F65" s="319"/>
-      <c r="G65" s="319"/>
-      <c r="H65" s="319"/>
-      <c r="I65" s="319"/>
-      <c r="J65" s="319"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B65" s="317"/>
+      <c r="C65" s="317"/>
+      <c r="D65" s="317"/>
+      <c r="E65" s="317"/>
+      <c r="F65" s="317"/>
+      <c r="G65" s="317"/>
+      <c r="H65" s="317"/>
+      <c r="I65" s="317"/>
+      <c r="J65" s="317"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="317" t="s">
+      <c r="C66" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="317"/>
-      <c r="E66" s="317" t="s">
+      <c r="D66" s="318"/>
+      <c r="E66" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="F66" s="317"/>
-      <c r="G66" s="317" t="s">
+      <c r="F66" s="318"/>
+      <c r="G66" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="H66" s="317"/>
-      <c r="I66" s="317" t="s">
+      <c r="H66" s="318"/>
+      <c r="I66" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="J66" s="317"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J66" s="318"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>10</v>
       </c>
@@ -4799,8 +4799,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="317" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="318" t="s">
         <v>11</v>
       </c>
       <c r="B68" t="s">
@@ -4839,8 +4839,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="317"/>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="318"/>
       <c r="B69" t="s">
         <v>13</v>
       </c>
@@ -4877,8 +4877,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="317"/>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="318"/>
       <c r="B70" t="s">
         <v>38</v>
       </c>
@@ -4915,9 +4915,9 @@
         <v>0.98039215686274495</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="318" t="s">
+    <row r="71" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="319" t="s">
         <v>338</v>
       </c>
       <c r="B72" t="s">
@@ -4956,8 +4956,8 @@
         <v>1.94174757281553E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="318"/>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="319"/>
       <c r="B73" t="s">
         <v>13</v>
       </c>
@@ -4994,8 +4994,8 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="318"/>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="319"/>
       <c r="B74" t="s">
         <v>38</v>
       </c>
@@ -5032,9 +5032,9 @@
         <v>0.32564703739955803</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="317" t="s">
+    <row r="75" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="318" t="s">
         <v>62</v>
       </c>
       <c r="B76" t="s">
@@ -5073,8 +5073,8 @@
         <v>0.27450980392156799</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="317"/>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="318"/>
       <c r="B77" t="s">
         <v>13</v>
       </c>
@@ -5111,8 +5111,8 @@
         <v>0.999592244625091</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="317"/>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="318"/>
       <c r="B78" t="s">
         <v>38</v>
       </c>
@@ -5149,30 +5149,30 @@
         <v>0.80882352941176405</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="321" t="s">
+    <row r="79" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="320" t="s">
         <v>63</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="321"/>
+    <row r="81" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="320"/>
       <c r="B81" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="321"/>
+    <row r="82" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="320"/>
       <c r="B82" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="317" t="s">
+    <row r="83" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="318" t="s">
         <v>64</v>
       </c>
       <c r="B84" t="s">
@@ -5210,8 +5210,8 @@
         <v>6.1728395061728301E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="317"/>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="318"/>
       <c r="B85" t="s">
         <v>13</v>
       </c>
@@ -5247,8 +5247,8 @@
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="317"/>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="318"/>
       <c r="B86" t="s">
         <v>38</v>
       </c>
@@ -5284,9 +5284,9 @@
         <v>0.194444444444444</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="317" t="s">
+    <row r="87" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="318" t="s">
         <v>65</v>
       </c>
       <c r="B88" t="s">
@@ -5325,8 +5325,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="317"/>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="318"/>
       <c r="B89" t="s">
         <v>13</v>
       </c>
@@ -5363,8 +5363,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="317"/>
+    <row r="90" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="318"/>
       <c r="B90" t="s">
         <v>38</v>
       </c>
@@ -5401,9 +5401,9 @@
         <v>0.32483771443366999</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="317" t="s">
+    <row r="91" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="318" t="s">
         <v>128</v>
       </c>
       <c r="B92" t="s">
@@ -5442,8 +5442,8 @@
         <v>2.4483660236001001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="317"/>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="318"/>
       <c r="B93" t="s">
         <v>13</v>
       </c>
@@ -5480,8 +5480,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="317"/>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="318"/>
       <c r="B94" t="s">
         <v>38</v>
       </c>
@@ -5518,42 +5518,42 @@
         <v>0.84207833336923898</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="319" t="s">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="317" t="s">
         <v>223</v>
       </c>
-      <c r="B97" s="319"/>
-      <c r="C97" s="319"/>
-      <c r="D97" s="319"/>
-      <c r="E97" s="319"/>
-      <c r="F97" s="319"/>
-      <c r="G97" s="319"/>
-      <c r="H97" s="319"/>
-      <c r="I97" s="319"/>
-      <c r="J97" s="319"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="317"/>
+      <c r="C97" s="317"/>
+      <c r="D97" s="317"/>
+      <c r="E97" s="317"/>
+      <c r="F97" s="317"/>
+      <c r="G97" s="317"/>
+      <c r="H97" s="317"/>
+      <c r="I97" s="317"/>
+      <c r="J97" s="317"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="317" t="s">
+      <c r="C98" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="D98" s="317"/>
-      <c r="E98" s="317" t="s">
+      <c r="D98" s="318"/>
+      <c r="E98" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="F98" s="317"/>
-      <c r="G98" s="317" t="s">
+      <c r="F98" s="318"/>
+      <c r="G98" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="H98" s="317"/>
-      <c r="I98" s="317" t="s">
+      <c r="H98" s="318"/>
+      <c r="I98" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="J98" s="317"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J98" s="318"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>10</v>
       </c>
@@ -5579,8 +5579,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="317" t="s">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="318" t="s">
         <v>11</v>
       </c>
       <c r="B100" t="s">
@@ -5619,8 +5619,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="317"/>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="318"/>
       <c r="B101" t="s">
         <v>13</v>
       </c>
@@ -5657,8 +5657,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="317"/>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="318"/>
       <c r="B102" t="s">
         <v>38</v>
       </c>
@@ -5695,9 +5695,9 @@
         <v>0.98347107438016501</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="318" t="s">
+    <row r="103" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="319" t="s">
         <v>338</v>
       </c>
       <c r="B104" t="s">
@@ -5736,8 +5736,8 @@
         <v>1.94174757281553E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="318"/>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="319"/>
       <c r="B105" t="s">
         <v>13</v>
       </c>
@@ -5774,8 +5774,8 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="318"/>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="319"/>
       <c r="B106" t="s">
         <v>38</v>
       </c>
@@ -5812,9 +5812,9 @@
         <v>0.32564703739955803</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="317" t="s">
+    <row r="107" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="318" t="s">
         <v>62</v>
       </c>
       <c r="B108" t="s">
@@ -5853,8 +5853,8 @@
         <v>0.46232494711875899</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="317"/>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="318"/>
       <c r="B109" t="s">
         <v>13</v>
       </c>
@@ -5891,8 +5891,8 @@
         <v>0.80882352941176405</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="317"/>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="318"/>
       <c r="B110" t="s">
         <v>38</v>
       </c>
@@ -5929,30 +5929,30 @@
         <v>0.63557423826526149</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="321" t="s">
+    <row r="111" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="320" t="s">
         <v>63</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="321"/>
+    <row r="113" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="320"/>
       <c r="B113" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="321"/>
+    <row r="114" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="320"/>
       <c r="B114" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" s="317" t="s">
+    <row r="115" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="318" t="s">
         <v>64</v>
       </c>
       <c r="B116" t="s">
@@ -5991,8 +5991,8 @@
         <v>0.194444444444444</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="317"/>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="318"/>
       <c r="B117" t="s">
         <v>13</v>
       </c>
@@ -6029,8 +6029,8 @@
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="317"/>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="318"/>
       <c r="B118" t="s">
         <v>38</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -6075,8 +6075,8 @@
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="317" t="s">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="318" t="s">
         <v>65</v>
       </c>
       <c r="B120" t="s">
@@ -6115,8 +6115,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="317"/>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="318"/>
       <c r="B121" t="s">
         <v>13</v>
       </c>
@@ -6153,8 +6153,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="317"/>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="318"/>
       <c r="B122" t="s">
         <v>38</v>
       </c>
@@ -6191,9 +6191,9 @@
         <v>0.62987012987012947</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="317" t="s">
+    <row r="123" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="318" t="s">
         <v>128</v>
       </c>
       <c r="B124" t="s">
@@ -6232,8 +6232,8 @@
         <v>0.298579073629821</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="317"/>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="318"/>
       <c r="B125" t="s">
         <v>13</v>
       </c>
@@ -6270,8 +6270,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="317"/>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="318"/>
       <c r="B126" t="s">
         <v>38</v>
       </c>
@@ -6308,43 +6308,43 @@
         <v>0.85634879413451004</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="319" t="s">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="317" t="s">
         <v>167</v>
       </c>
-      <c r="B129" s="319"/>
-      <c r="C129" s="319"/>
-      <c r="D129" s="319"/>
-      <c r="E129" s="319"/>
-      <c r="F129" s="319"/>
-      <c r="G129" s="319"/>
-      <c r="H129" s="319"/>
-      <c r="I129" s="319"/>
-      <c r="J129" s="319"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B129" s="317"/>
+      <c r="C129" s="317"/>
+      <c r="D129" s="317"/>
+      <c r="E129" s="317"/>
+      <c r="F129" s="317"/>
+      <c r="G129" s="317"/>
+      <c r="H129" s="317"/>
+      <c r="I129" s="317"/>
+      <c r="J129" s="317"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="316" t="s">
         <v>12</v>
       </c>
       <c r="B130" s="316"/>
-      <c r="C130" s="317" t="s">
+      <c r="C130" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="317"/>
-      <c r="E130" s="317" t="s">
+      <c r="D130" s="318"/>
+      <c r="E130" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="F130" s="317"/>
-      <c r="G130" s="317" t="s">
+      <c r="F130" s="318"/>
+      <c r="G130" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="H130" s="317"/>
-      <c r="I130" s="317" t="s">
+      <c r="H130" s="318"/>
+      <c r="I130" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="J130" s="317"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J130" s="318"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="316"/>
       <c r="B131" s="316"/>
       <c r="C131" s="316" t="s">
@@ -6372,8 +6372,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="317" t="s">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="318" t="s">
         <v>11</v>
       </c>
       <c r="B132" s="316" t="s">
@@ -6412,8 +6412,8 @@
         <v>0.13684210526315699</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" s="317"/>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="318"/>
       <c r="B133" s="316" t="s">
         <v>13</v>
       </c>
@@ -6450,8 +6450,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="317"/>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="318"/>
       <c r="B134" s="316" t="s">
         <v>38</v>
       </c>
@@ -6488,9 +6488,9 @@
         <v>0.96234177215189853</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" s="318" t="s">
+    <row r="135" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="319" t="s">
         <v>338</v>
       </c>
       <c r="B136" s="316" t="s">
@@ -6529,8 +6529,8 @@
         <v>1.94174757281553E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" s="318"/>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="319"/>
       <c r="B137" s="316" t="s">
         <v>13</v>
       </c>
@@ -6567,8 +6567,8 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="318"/>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="319"/>
       <c r="B138" s="316" t="s">
         <v>38</v>
       </c>
@@ -6605,9 +6605,9 @@
         <v>0.32564703739955803</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="317" t="s">
+    <row r="139" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="318" t="s">
         <v>62</v>
       </c>
       <c r="B140" s="316" t="s">
@@ -6646,8 +6646,8 @@
         <v>0.46232494711875899</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="317"/>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="318"/>
       <c r="B141" s="316" t="s">
         <v>13</v>
       </c>
@@ -6684,8 +6684,8 @@
         <v>0.80882352941176405</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="317"/>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="318"/>
       <c r="B142" s="316" t="s">
         <v>38</v>
       </c>
@@ -6722,30 +6722,30 @@
         <v>0.63557423826526149</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="321" t="s">
+    <row r="143" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="320" t="s">
         <v>63</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="321"/>
+    <row r="145" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="320"/>
       <c r="B145" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="321"/>
+    <row r="146" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="320"/>
       <c r="B146" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" s="317" t="s">
+    <row r="147" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="318" t="s">
         <v>64</v>
       </c>
       <c r="B148" s="316" t="s">
@@ -6784,8 +6784,8 @@
         <v>6.1728395061728301E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A149" s="317"/>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="318"/>
       <c r="B149" s="316" t="s">
         <v>13</v>
       </c>
@@ -6822,8 +6822,8 @@
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" s="317"/>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="318"/>
       <c r="B150" s="316" t="s">
         <v>38</v>
       </c>
@@ -6860,9 +6860,9 @@
         <v>0.137222222222222</v>
       </c>
     </row>
-    <row r="151" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A152" s="317" t="s">
+    <row r="151" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="318" t="s">
         <v>65</v>
       </c>
       <c r="B152" s="316" t="s">
@@ -6901,8 +6901,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A153" s="317"/>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="318"/>
       <c r="B153" s="316" t="s">
         <v>13</v>
       </c>
@@ -6939,8 +6939,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A154" s="317"/>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="318"/>
       <c r="B154" s="316" t="s">
         <v>38</v>
       </c>
@@ -6977,9 +6977,9 @@
         <v>0.62987012987012947</v>
       </c>
     </row>
-    <row r="155" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" s="317" t="s">
+    <row r="155" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="318" t="s">
         <v>128</v>
       </c>
       <c r="B156" s="316" t="s">
@@ -7018,8 +7018,8 @@
         <v>2.5877237319946199E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A157" s="317"/>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="318"/>
       <c r="B157" s="316" t="s">
         <v>13</v>
       </c>
@@ -7056,8 +7056,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158" s="317"/>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="318"/>
       <c r="B158" s="316" t="s">
         <v>38</v>
       </c>
@@ -7096,22 +7096,19 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A129:J129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A148:A150"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="A65:J65"/>
     <mergeCell ref="A97:J97"/>
     <mergeCell ref="C2:F2"/>
@@ -7122,35 +7119,38 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="E98:F98"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="E98:F98"/>
     <mergeCell ref="A80:A82"/>
     <mergeCell ref="A84:A86"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A92:A94"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A40:A42"/>
     <mergeCell ref="A112:A114"/>
     <mergeCell ref="A116:A118"/>
     <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A148:A150"/>
+    <mergeCell ref="A129:J129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7162,75 +7162,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C51EFA6-41D0-4FFF-BFD8-89CBDBBAE072}">
   <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158:F158"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.08203125" customWidth="1"/>
-    <col min="2" max="2" width="3.08203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="3.125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="317" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="317"/>
+      <c r="C12" s="318"/>
       <c r="D12" s="3" t="s">
         <v>35</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="98.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="98.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>34</v>
@@ -7260,12 +7260,12 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>0.987341772151898</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>0.98039215686274495</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>0.840707964601769</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>0.215189873417721</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>0.98901098901098905</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>0.19417475728155301</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -7425,12 +7425,12 @@
         <v>0.13684210526315699</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>0.974683544303797</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>0.98347107438016501</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -7610,67 +7610,67 @@
         <v>0.534246575342465</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="319" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="317" t="s">
         <v>292</v>
       </c>
-      <c r="B40" s="319"/>
-      <c r="C40" s="319"/>
-      <c r="D40" s="319"/>
-      <c r="E40" s="319"/>
-      <c r="F40" s="319"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="317"/>
+      <c r="C40" s="317"/>
+      <c r="D40" s="317"/>
+      <c r="E40" s="317"/>
+      <c r="F40" s="317"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="316"/>
-      <c r="B52" s="317" t="s">
+      <c r="B52" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="317"/>
+      <c r="C52" s="318"/>
       <c r="D52" s="3" t="s">
         <v>35</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
         <v>34</v>
@@ -7699,7 +7699,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="316" t="s">
         <v>40</v>
       </c>
@@ -7709,7 +7709,7 @@
       <c r="E54" s="316"/>
       <c r="F54" s="316"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="316" t="s">
         <v>21</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>0.98039215686274495</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="316" t="s">
         <v>25</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="316" t="s">
         <v>27</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>0.840707964601769</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="316" t="s">
         <v>28</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>0.215189873417721</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="316" t="s">
         <v>26</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>0.534246575342465</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="316" t="s">
         <v>31</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>0.19417475728155301</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="316" t="s">
         <v>32</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>0.13684210526315699</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="316" t="s">
         <v>20</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="316" t="s">
         <v>39</v>
       </c>
@@ -7879,7 +7879,7 @@
       <c r="E64" s="316"/>
       <c r="F64" s="316"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>30</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>19</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>0.974683544303797</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>33</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>17</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>29</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>0.98901098901098905</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>22</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>23</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>24</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>0.98347107438016501</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>18</v>
       </c>
@@ -8059,87 +8059,87 @@
         <v>0.987341772151898</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="319" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="317" t="s">
         <v>237</v>
       </c>
-      <c r="B77" s="319"/>
-      <c r="C77" s="319"/>
-      <c r="D77" s="319"/>
-      <c r="E77" s="319"/>
-      <c r="F77" s="319"/>
-    </row>
-    <row r="78" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="317"/>
+      <c r="C77" s="317"/>
+      <c r="D77" s="317"/>
+      <c r="E77" s="317"/>
+      <c r="F77" s="317"/>
+    </row>
+    <row r="78" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="316"/>
-      <c r="B93" s="317" t="s">
+      <c r="B93" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="317"/>
+      <c r="C93" s="318"/>
       <c r="D93" s="3" t="s">
         <v>35</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="2" t="s">
         <v>34</v>
@@ -8168,7 +8168,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="316" t="s">
         <v>40</v>
       </c>
@@ -8178,7 +8178,7 @@
       <c r="E95" s="316"/>
       <c r="F95" s="316"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>22</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="316" t="s">
         <v>32</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>0.13684210526315699</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>19</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>0.974683544303797</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>33</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="316" t="s">
         <v>39</v>
       </c>
@@ -8268,7 +8268,7 @@
       <c r="E101" s="316"/>
       <c r="F101" s="316"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>30</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>20</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>31</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>0.19417475728155301</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>17</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>29</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>0.98901098901098905</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>26</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>0.534246575342465</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>23</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>18</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>0.987341772151898</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="205" t="s">
         <v>21</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>0.98039215686274495</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>25</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>27</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>0.840707964601769</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>28</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>0.215189873417721</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>24</v>
       </c>
@@ -8528,87 +8528,87 @@
         <v>0.98347107438016501</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="319" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="317" t="s">
         <v>223</v>
       </c>
-      <c r="B119" s="319"/>
-      <c r="C119" s="319"/>
-      <c r="D119" s="319"/>
-      <c r="E119" s="319"/>
-      <c r="F119" s="319"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B119" s="317"/>
+      <c r="C119" s="317"/>
+      <c r="D119" s="317"/>
+      <c r="E119" s="317"/>
+      <c r="F119" s="317"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="316"/>
-      <c r="B134" s="317" t="s">
+      <c r="B134" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C134" s="317"/>
+      <c r="C134" s="318"/>
       <c r="D134" s="3" t="s">
         <v>35</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="2" t="s">
         <v>34</v>
@@ -8637,7 +8637,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="316" t="s">
         <v>40</v>
       </c>
@@ -8647,7 +8647,7 @@
       <c r="E136" s="316"/>
       <c r="F136" s="316"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>22</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="316" t="s">
         <v>32</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>0.13684210526315699</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>19</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>0.974683544303797</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>31</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>0.19417475728155301</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="316" t="s">
         <v>39</v>
       </c>
@@ -8737,7 +8737,7 @@
       <c r="E142" s="316"/>
       <c r="F142" s="316"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="205" t="s">
         <v>30</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="206" t="s">
         <v>20</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="206" t="s">
         <v>33</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="206" t="s">
         <v>17</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="206" t="s">
         <v>29</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>0.98901098901098905</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="206" t="s">
         <v>26</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>0.534246575342465</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="206" t="s">
         <v>23</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="206" t="s">
         <v>18</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>0.987341772151898</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="206" t="s">
         <v>21</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>0.98039215686274495</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="206" t="s">
         <v>25</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="206" t="s">
         <v>27</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>0.840707964601769</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="206" t="s">
         <v>28</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>0.215189873417721</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="206" t="s">
         <v>24</v>
       </c>
@@ -8997,66 +8997,66 @@
         <v>0.98347107438016501</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="9"/>
       <c r="C156" s="4"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="319" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="317" t="s">
         <v>167</v>
       </c>
-      <c r="B158" s="319"/>
-      <c r="C158" s="319"/>
-      <c r="D158" s="319"/>
-      <c r="E158" s="319"/>
-      <c r="F158" s="319"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B158" s="317"/>
+      <c r="C158" s="317"/>
+      <c r="D158" s="317"/>
+      <c r="E158" s="317"/>
+      <c r="F158" s="317"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="316"/>
-      <c r="B168" s="317" t="s">
+      <c r="B168" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C168" s="317"/>
+      <c r="C168" s="318"/>
       <c r="D168" s="3" t="s">
         <v>35</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="2" t="s">
         <v>34</v>
@@ -9085,7 +9085,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="316" t="s">
         <v>40</v>
       </c>
@@ -9095,7 +9095,7 @@
       <c r="E170" s="316"/>
       <c r="F170" s="316"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
         <v>33</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>24</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>0.98347107438016501</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
         <v>27</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>0.840707964601769</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>20</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>29</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>0.98901098901098905</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>26</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>0.534246575342465</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>23</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>18</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>0.987341772151898</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="205" t="s">
         <v>21</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>0.98039215686274495</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="316" t="s">
         <v>39</v>
       </c>
@@ -9285,7 +9285,7 @@
       <c r="E181" s="316"/>
       <c r="F181" s="316"/>
     </row>
-    <row r="182" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="205" t="s">
         <v>28</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>0.215189873417721</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="206" t="s">
         <v>19</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>0.974683544303797</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="206" t="s">
         <v>22</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="206" t="s">
         <v>32</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>0.13684210526315699</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="206" t="s">
         <v>31</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>0.19417475728155301</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="206" t="s">
         <v>25</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="206" t="s">
         <v>17</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="206" t="s">
         <v>30</v>
       </c>
@@ -9471,37 +9471,37 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="4.5" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" customWidth="1"/>
-    <col min="4" max="4" width="16.4140625" customWidth="1"/>
-    <col min="5" max="5" width="13.58203125" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>252</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>55</v>
       </c>
@@ -9532,12 +9532,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>7.3170731707316999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>0.85853658536585298</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>0.86875000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>9.45945945945946E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -9657,12 +9657,12 @@
         <v>0.29596412556053803</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>1.94174757281553E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>0.65365853658536499</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>0.35532994923857802</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -9742,61 +9742,61 @@
         <v>0.79024390243902398</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="319" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="317" t="s">
         <v>321</v>
       </c>
-      <c r="B26" s="319"/>
-      <c r="C26" s="319"/>
-      <c r="D26" s="319"/>
-      <c r="E26" s="319"/>
-      <c r="F26" s="319"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="317"/>
+      <c r="C26" s="317"/>
+      <c r="D26" s="317"/>
+      <c r="E26" s="317"/>
+      <c r="F26" s="317"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="299"/>
       <c r="B36" s="299"/>
       <c r="C36" s="299" t="s">
@@ -9812,7 +9812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="299"/>
       <c r="B37" s="2" t="s">
         <v>55</v>
@@ -9830,7 +9830,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="299" t="s">
         <v>10</v>
       </c>
@@ -9840,7 +9840,7 @@
       <c r="E38" s="299"/>
       <c r="F38" s="299"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="299" t="s">
         <v>47</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>0.85853658536585298</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="299" t="s">
         <v>48</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>0.86875000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="299" t="s">
         <v>60</v>
       </c>
@@ -9890,7 +9890,7 @@
       <c r="E42" s="299"/>
       <c r="F42" s="299"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="299" t="s">
         <v>46</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>1.94174757281553E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="299" t="s">
         <v>45</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>0.65365853658536499</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="299" t="s">
         <v>44</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>0.35532994923857802</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="299" t="s">
         <v>52</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>0.79024390243902398</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="299" t="s">
         <v>43</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>7.3170731707316999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="299" t="s">
         <v>49</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="299" t="s">
         <v>50</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>9.45945945945946E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="299" t="s">
         <v>51</v>
       </c>
@@ -10050,17 +10050,17 @@
         <v>0.29596412556053803</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="319" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="317" t="s">
         <v>251</v>
       </c>
-      <c r="B55" s="319"/>
-      <c r="C55" s="319"/>
-      <c r="D55" s="319"/>
-      <c r="E55" s="319"/>
-      <c r="F55" s="319"/>
-    </row>
-    <row r="56" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="317"/>
+      <c r="C55" s="317"/>
+      <c r="D55" s="317"/>
+      <c r="E55" s="317"/>
+      <c r="F55" s="317"/>
+    </row>
+    <row r="56" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>176</v>
       </c>
@@ -10070,42 +10070,42 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="299"/>
       <c r="B66" s="299"/>
       <c r="C66" s="299" t="s">
@@ -10121,7 +10121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="299"/>
       <c r="B67" s="2" t="s">
         <v>55</v>
@@ -10139,7 +10139,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="299" t="s">
         <v>10</v>
       </c>
@@ -10149,7 +10149,7 @@
       <c r="E68" s="299"/>
       <c r="F68" s="299"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="299" t="s">
         <v>47</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>0.85853658536585298</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="299" t="s">
         <v>48</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>0.86875000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="299"/>
       <c r="B71" s="299"/>
       <c r="C71" s="299"/>
@@ -10197,7 +10197,7 @@
       <c r="E71" s="299"/>
       <c r="F71" s="299"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="299" t="s">
         <v>60</v>
       </c>
@@ -10207,7 +10207,7 @@
       <c r="E72" s="299"/>
       <c r="F72" s="299"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="299" t="s">
         <v>46</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>1.94174757281553E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="299" t="s">
         <v>45</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>0.65365853658536499</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="299" t="s">
         <v>44</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>0.35532994923857802</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="299" t="s">
         <v>52</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>0.79024390243902398</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="299" t="s">
         <v>43</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>7.3170731707316999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="299" t="s">
         <v>49</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="299" t="s">
         <v>50</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>9.45945945945946E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="299" t="s">
         <v>51</v>
       </c>
@@ -10367,57 +10367,57 @@
         <v>0.29596412556053803</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="319" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="317" t="s">
         <v>222</v>
       </c>
-      <c r="B86" s="319"/>
-      <c r="C86" s="319"/>
-      <c r="D86" s="319"/>
-      <c r="E86" s="319"/>
-      <c r="F86" s="319"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="317"/>
+      <c r="C86" s="317"/>
+      <c r="D86" s="317"/>
+      <c r="E86" s="317"/>
+      <c r="F86" s="317"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="299"/>
       <c r="B96" s="299"/>
       <c r="C96" s="299" t="s">
@@ -10433,7 +10433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="126" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A97" s="299"/>
       <c r="B97" s="2" t="s">
         <v>55</v>
@@ -10451,7 +10451,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="299" t="s">
         <v>10</v>
       </c>
@@ -10461,7 +10461,7 @@
       <c r="E98" s="299"/>
       <c r="F98" s="299"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="299" t="s">
         <v>47</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>0.85853658536585298</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="299" t="s">
         <v>48</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>0.86875000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="299"/>
       <c r="B101" s="299"/>
       <c r="C101" s="299"/>
@@ -10509,7 +10509,7 @@
       <c r="E101" s="299"/>
       <c r="F101" s="299"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="299" t="s">
         <v>60</v>
       </c>
@@ -10519,7 +10519,7 @@
       <c r="E102" s="299"/>
       <c r="F102" s="299"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="299" t="s">
         <v>46</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>1.94174757281553E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="299" t="s">
         <v>45</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>0.65365853658536499</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="299" t="s">
         <v>44</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>0.35532994923857802</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="299" t="s">
         <v>52</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>0.79024390243902398</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="299" t="s">
         <v>43</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>7.3170731707316999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="299" t="s">
         <v>49</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="299" t="s">
         <v>50</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>9.45945945945946E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="299" t="s">
         <v>51</v>
       </c>
@@ -10679,57 +10679,57 @@
         <v>0.29596412556053803</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="319" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="317" t="s">
         <v>167</v>
       </c>
-      <c r="B114" s="319"/>
-      <c r="C114" s="319"/>
-      <c r="D114" s="319"/>
-      <c r="E114" s="319"/>
-      <c r="F114" s="319"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B114" s="317"/>
+      <c r="C114" s="317"/>
+      <c r="D114" s="317"/>
+      <c r="E114" s="317"/>
+      <c r="F114" s="317"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="299"/>
       <c r="B124" s="299"/>
       <c r="C124" s="299" t="s">
@@ -10745,7 +10745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="299"/>
       <c r="B125" s="2" t="s">
         <v>55</v>
@@ -10763,7 +10763,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="299" t="s">
         <v>10</v>
       </c>
@@ -10773,7 +10773,7 @@
       <c r="E126" s="299"/>
       <c r="F126" s="299"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="299" t="s">
         <v>47</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>0.85853658536585298</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="299" t="s">
         <v>48</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>0.86875000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="299"/>
       <c r="B129" s="299"/>
       <c r="C129" s="299"/>
@@ -10821,7 +10821,7 @@
       <c r="E129" s="299"/>
       <c r="F129" s="299"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="299" t="s">
         <v>60</v>
       </c>
@@ -10831,7 +10831,7 @@
       <c r="E130" s="299"/>
       <c r="F130" s="299"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="299" t="s">
         <v>46</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>1.94174757281553E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="299" t="s">
         <v>45</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>0.65365853658536499</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="299" t="s">
         <v>44</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>0.35532994923857802</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="299" t="s">
         <v>52</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>0.79024390243902398</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="299" t="s">
         <v>43</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>7.3170731707316999E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="299" t="s">
         <v>49</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="299" t="s">
         <v>50</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>9.45945945945946E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="299" t="s">
         <v>51</v>
       </c>
@@ -11011,31 +11011,31 @@
       <selection activeCell="E5" sqref="E5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="17.4140625" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="317" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="317"/>
+      <c r="C5" s="318"/>
       <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>75</v>
@@ -11064,12 +11064,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>0.379602581262588</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>0.341076970100402</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>0.54908126592636097</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>0.33862063288688599</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>0.999592244625091</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>0.13445378151260501</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>0.76470588235294101</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>0.27450980392156799</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>0.92857142857142805</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>0.92647058823529405</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>0.984615384615384</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>4.4117647058823498E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -11329,13 +11329,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>95</v>
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>0.80882352941176405</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -11375,37 +11375,37 @@
         <v>0.46232494711875899</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="319" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="317" t="s">
         <v>292</v>
       </c>
-      <c r="B36" s="319"/>
-      <c r="C36" s="319"/>
-      <c r="D36" s="319"/>
-      <c r="E36" s="319"/>
-      <c r="F36" s="319"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="317"/>
+      <c r="C36" s="317"/>
+      <c r="D36" s="317"/>
+      <c r="E36" s="317"/>
+      <c r="F36" s="317"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="279"/>
-      <c r="B41" s="317" t="s">
+      <c r="B41" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="317"/>
+      <c r="C41" s="318"/>
       <c r="D41" s="3" t="s">
         <v>35</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>75</v>
@@ -11434,7 +11434,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="279" t="s">
         <v>10</v>
       </c>
@@ -11444,7 +11444,7 @@
       <c r="E43" s="279"/>
       <c r="F43" s="279"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="279" t="s">
         <v>87</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>0.379602581262588</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="279" t="s">
         <v>88</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>0.341076970100402</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="279" t="s">
         <v>89</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>0.54908126592636097</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="279" t="s">
         <v>91</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>0.33862063288688599</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="279" t="s">
         <v>78</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>0.13445378151260501</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="279" t="s">
         <v>79</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>0.76470588235294101</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="279" t="s">
         <v>80</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>0.27450980392156799</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="279" t="s">
         <v>81</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>0.92857142857142805</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="279" t="s">
         <v>82</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>0.92647058823529405</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="279" t="s">
         <v>84</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>4.4117647058823498E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="279" t="s">
         <v>85</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="279" t="s">
         <v>90</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>0.46232494711875899</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="279" t="s">
         <v>9</v>
       </c>
@@ -11694,7 +11694,7 @@
       <c r="E57" s="279"/>
       <c r="F57" s="279"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="279" t="s">
         <v>86</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>0.80882352941176405</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="279" t="s">
         <v>92</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>0.999592244625091</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="279" t="s">
         <v>83</v>
       </c>
@@ -11754,67 +11754,67 @@
         <v>0.984615384615384</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="319" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="317" t="s">
         <v>254</v>
       </c>
-      <c r="B64" s="319"/>
-      <c r="C64" s="319"/>
-      <c r="D64" s="319"/>
-      <c r="E64" s="319"/>
-      <c r="F64" s="319"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="317"/>
+      <c r="C64" s="317"/>
+      <c r="D64" s="317"/>
+      <c r="E64" s="317"/>
+      <c r="F64" s="317"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="279"/>
-      <c r="B75" s="317" t="s">
+      <c r="B75" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="317"/>
+      <c r="C75" s="318"/>
       <c r="D75" s="3" t="s">
         <v>35</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
         <v>75</v>
@@ -11843,7 +11843,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="279" t="s">
         <v>10</v>
       </c>
@@ -11853,7 +11853,7 @@
       <c r="E77" s="279"/>
       <c r="F77" s="279"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="279" t="s">
         <v>88</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>0.341076970100402</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="279" t="s">
         <v>78</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>0.13445378151260501</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="279" t="s">
         <v>79</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>0.76470588235294101</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="279" t="s">
         <v>84</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>4.4117647058823498E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="279" t="s">
         <v>85</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="279" t="s">
         <v>90</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>0.46232494711875899</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="279" t="s">
         <v>9</v>
       </c>
@@ -11983,7 +11983,7 @@
       <c r="E85" s="279"/>
       <c r="F85" s="279"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="279" t="s">
         <v>87</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>0.379602581262588</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="279" t="s">
         <v>82</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>0.92647058823529405</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="279" t="s">
         <v>91</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>0.33862063288688599</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="279" t="s">
         <v>86</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>0.80882352941176405</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="279" t="s">
         <v>92</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>0.999592244625091</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="279" t="s">
         <v>83</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>0.984615384615384</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="279" t="s">
         <v>89</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>0.54908126592636097</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="279" t="s">
         <v>80</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>0.27450980392156799</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="279" t="s">
         <v>81</v>
       </c>
@@ -12163,32 +12163,32 @@
         <v>0.92857142857142805</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="319" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="317" t="s">
         <v>255</v>
       </c>
-      <c r="B97" s="319"/>
-      <c r="C97" s="319"/>
-      <c r="D97" s="319"/>
-      <c r="E97" s="319"/>
-      <c r="F97" s="319"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="317"/>
+      <c r="C97" s="317"/>
+      <c r="D97" s="317"/>
+      <c r="E97" s="317"/>
+      <c r="F97" s="317"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="279"/>
-      <c r="B106" s="317" t="s">
+      <c r="B106" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="317"/>
+      <c r="C106" s="318"/>
       <c r="D106" s="3" t="s">
         <v>35</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="2" t="s">
         <v>75</v>
@@ -12217,7 +12217,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="279" t="s">
         <v>10</v>
       </c>
@@ -12227,7 +12227,7 @@
       <c r="E108" s="279"/>
       <c r="F108" s="279"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="279" t="s">
         <v>87</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>0.379602581262588</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="279" t="s">
         <v>88</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>0.341076970100402</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="279" t="s">
         <v>89</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>0.54908126592636097</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="279" t="s">
         <v>91</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>0.33862063288688599</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="279" t="s">
         <v>92</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>0.999592244625091</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="279" t="s">
         <v>78</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>0.13445378151260501</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="279" t="s">
         <v>79</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>0.76470588235294101</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="279" t="s">
         <v>80</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>0.27450980392156799</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="279" t="s">
         <v>81</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>0.92857142857142805</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="279" t="s">
         <v>82</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>0.92647058823529405</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="279" t="s">
         <v>83</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>0.984615384615384</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="279" t="s">
         <v>84</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>4.4117647058823498E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="279" t="s">
         <v>85</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="279"/>
       <c r="B122" s="279"/>
       <c r="C122" s="279"/>
@@ -12495,7 +12495,7 @@
       <c r="E122" s="279"/>
       <c r="F122" s="279"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="279" t="s">
         <v>9</v>
       </c>
@@ -12505,7 +12505,7 @@
       <c r="E123" s="279"/>
       <c r="F123" s="279"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="279" t="s">
         <v>86</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>0.80882352941176405</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="279" t="s">
         <v>90</v>
       </c>
@@ -12545,31 +12545,31 @@
         <v>0.46232494711875899</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="319" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="317" t="s">
         <v>167</v>
       </c>
-      <c r="B129" s="319"/>
-      <c r="C129" s="319"/>
-      <c r="D129" s="319"/>
-      <c r="E129" s="319"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B129" s="317"/>
+      <c r="C129" s="317"/>
+      <c r="D129" s="317"/>
+      <c r="E129" s="317"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="279"/>
-      <c r="B133" s="317" t="s">
+      <c r="B133" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="317"/>
+      <c r="C133" s="318"/>
       <c r="D133" s="3" t="s">
         <v>35</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="2" t="s">
         <v>75</v>
@@ -12598,7 +12598,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="279" t="s">
         <v>10</v>
       </c>
@@ -12608,7 +12608,7 @@
       <c r="E135" s="279"/>
       <c r="F135" s="279"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="279" t="s">
         <v>87</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>0.379602581262588</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="279" t="s">
         <v>88</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>0.341076970100402</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="279" t="s">
         <v>89</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>0.54908126592636097</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="279" t="s">
         <v>91</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>0.33862063288688599</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="279" t="s">
         <v>92</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>0.999592244625091</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="279" t="s">
         <v>78</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>0.13445378151260501</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="279" t="s">
         <v>79</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>0.76470588235294101</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="279" t="s">
         <v>80</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>0.27450980392156799</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="279" t="s">
         <v>81</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>0.92857142857142805</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="279" t="s">
         <v>82</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>0.92647058823529405</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="279" t="s">
         <v>83</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>0.984615384615384</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="279" t="s">
         <v>84</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>4.4117647058823498E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="279" t="s">
         <v>85</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="279"/>
       <c r="B149" s="279"/>
       <c r="C149" s="279"/>
@@ -12876,7 +12876,7 @@
       <c r="E149" s="279"/>
       <c r="F149" s="279"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="279" t="s">
         <v>9</v>
       </c>
@@ -12886,7 +12886,7 @@
       <c r="E150" s="279"/>
       <c r="F150" s="279"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="279" t="s">
         <v>86</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>0.80882352941176405</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="279" t="s">
         <v>90</v>
       </c>
@@ -12952,37 +12952,37 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="317" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="317"/>
+      <c r="C7" s="318"/>
       <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -12990,7 +12990,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>0.44943132996559099</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -13015,7 +13015,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -13024,19 +13024,19 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -13045,45 +13045,45 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C17" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>160</v>
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>161</v>
       </c>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>162</v>
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="317" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="317"/>
+      <c r="C27" s="318"/>
       <c r="D27" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -13091,7 +13091,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -13107,12 +13107,12 @@
         <v>0.474721699953079</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>0.50640267133712702</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>0.47530123591423001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -13154,36 +13154,36 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.08203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.58203125" customWidth="1"/>
-    <col min="4" max="4" width="18.58203125" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="317" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="317"/>
+      <c r="C8" s="318"/>
       <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>100</v>
@@ -13212,12 +13212,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>0.62803578376769997</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -13277,12 +13277,12 @@
         <v>6.1728395061728301E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>0.194444444444444</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -13342,41 +13342,41 @@
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="319" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="317" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="319"/>
-      <c r="C21" s="319"/>
-      <c r="D21" s="319"/>
-      <c r="E21" s="319"/>
-      <c r="F21" s="319"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="317"/>
+      <c r="C21" s="317"/>
+      <c r="D21" s="317"/>
+      <c r="E21" s="317"/>
+      <c r="F21" s="317"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="317" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="317"/>
+      <c r="C27" s="318"/>
       <c r="D27" s="3" t="s">
         <v>35</v>
       </c>
@@ -13387,7 +13387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>100</v>
@@ -13405,7 +13405,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="264" t="s">
         <v>10</v>
       </c>
@@ -13415,7 +13415,7 @@
       <c r="E29" s="264"/>
       <c r="F29" s="264"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="264" t="s">
         <v>106</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="264" t="s">
         <v>107</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>6.1728395061728301E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="264"/>
       <c r="B32" s="264"/>
       <c r="C32" s="264"/>
@@ -13463,7 +13463,7 @@
       <c r="E32" s="264"/>
       <c r="F32" s="264"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="264" t="s">
         <v>9</v>
       </c>
@@ -13473,7 +13473,7 @@
       <c r="E33" s="264"/>
       <c r="F33" s="264"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="264" t="s">
         <v>105</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>0.194444444444444</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="264" t="s">
         <v>108</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="264" t="s">
         <v>104</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="264" t="s">
         <v>103</v>
       </c>
@@ -13553,46 +13553,46 @@
         <v>0.62803578376769997</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="319" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="317" t="s">
         <v>277</v>
       </c>
-      <c r="B40" s="319"/>
-      <c r="C40" s="319"/>
-      <c r="D40" s="319"/>
-      <c r="E40" s="319"/>
-      <c r="F40" s="319"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="317"/>
+      <c r="C40" s="317"/>
+      <c r="D40" s="317"/>
+      <c r="E40" s="317"/>
+      <c r="F40" s="317"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="317" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="317"/>
+      <c r="C46" s="318"/>
       <c r="D46" s="3" t="s">
         <v>35</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
         <v>100</v>
@@ -13621,7 +13621,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="264" t="s">
         <v>10</v>
       </c>
@@ -13631,7 +13631,7 @@
       <c r="E48" s="264"/>
       <c r="F48" s="264"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="264" t="s">
         <v>108</v>
       </c>
@@ -13651,7 +13651,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="264" t="s">
         <v>9</v>
       </c>
@@ -13661,7 +13661,7 @@
       <c r="E52" s="264"/>
       <c r="F52" s="264"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="264" t="s">
         <v>105</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>0.194444444444444</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="264" t="s">
         <v>104</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="264" t="s">
         <v>103</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>0.62803578376769997</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="264" t="s">
         <v>106</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="264" t="s">
         <v>107</v>
       </c>
@@ -13761,36 +13761,36 @@
         <v>6.1728395061728301E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="319" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="317" t="s">
         <v>265</v>
       </c>
-      <c r="B60" s="319"/>
-      <c r="C60" s="319"/>
-      <c r="D60" s="319"/>
-      <c r="E60" s="319"/>
-      <c r="F60" s="319"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="317"/>
+      <c r="C60" s="317"/>
+      <c r="D60" s="317"/>
+      <c r="E60" s="317"/>
+      <c r="F60" s="317"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="317" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="317"/>
+      <c r="C68" s="318"/>
       <c r="D68" s="3" t="s">
         <v>35</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
         <v>100</v>
@@ -13819,7 +13819,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="264" t="s">
         <v>10</v>
       </c>
@@ -13829,7 +13829,7 @@
       <c r="E70" s="264"/>
       <c r="F70" s="264"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="264" t="s">
         <v>107</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>6.1728395061728301E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="264" t="s">
         <v>103</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>0.62803578376769997</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="264" t="s">
         <v>106</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="264" t="s">
         <v>9</v>
       </c>
@@ -13899,7 +13899,7 @@
       <c r="E75" s="264"/>
       <c r="F75" s="264"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="264" t="s">
         <v>105</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>0.194444444444444</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="264" t="s">
         <v>104</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="264" t="s">
         <v>108</v>
       </c>
@@ -13959,42 +13959,42 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="319" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="317" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="319"/>
-      <c r="C81" s="319"/>
-      <c r="D81" s="319"/>
-      <c r="E81" s="319"/>
-      <c r="F81" s="319"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="317"/>
+      <c r="C81" s="317"/>
+      <c r="D81" s="317"/>
+      <c r="E81" s="317"/>
+      <c r="F81" s="317"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="264"/>
-      <c r="B87" s="317" t="s">
+      <c r="B87" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="317"/>
+      <c r="C87" s="318"/>
       <c r="D87" s="3" t="s">
         <v>35</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="2" t="s">
         <v>100</v>
@@ -14023,7 +14023,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="264" t="s">
         <v>10</v>
       </c>
@@ -14033,7 +14033,7 @@
       <c r="E89" s="264"/>
       <c r="F89" s="264"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="264" t="s">
         <v>108</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="264" t="s">
         <v>103</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>0.62803578376769997</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="264" t="s">
         <v>9</v>
       </c>
@@ -14083,7 +14083,7 @@
       <c r="E93" s="264"/>
       <c r="F93" s="264"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="264" t="s">
         <v>105</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>0.194444444444444</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="264" t="s">
         <v>104</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="264" t="s">
         <v>106</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="264" t="s">
         <v>107</v>
       </c>
@@ -14189,31 +14189,31 @@
       <selection activeCell="E99" sqref="E99:F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="317" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="317"/>
+      <c r="C6" s="318"/>
       <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="56.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>110</v>
@@ -14242,12 +14242,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>0.61290322580645096</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>0.94047619047619002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>0.87096774193548299</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>0.53571428571428503</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>0.97222222222222199</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>0.22764227642276399</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>0.433317631483078</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>1.0182511806487999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -14547,12 +14547,12 @@
         <v>0.32483771443366999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -14592,46 +14592,46 @@
         <v>0.25974025974025899</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="319" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="317" t="s">
         <v>292</v>
       </c>
-      <c r="B34" s="319"/>
-      <c r="C34" s="319"/>
-      <c r="D34" s="319"/>
-      <c r="E34" s="319"/>
-      <c r="F34" s="319"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="317"/>
+      <c r="C34" s="317"/>
+      <c r="D34" s="317"/>
+      <c r="E34" s="317"/>
+      <c r="F34" s="317"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="317" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="317"/>
+      <c r="C41" s="318"/>
       <c r="D41" s="3" t="s">
         <v>35</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>110</v>
@@ -14660,12 +14660,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -14685,7 +14685,7 @@
         <v>0.61290322580645096</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>0.94047619047619002</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -14725,7 +14725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>0.87096774193548299</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>119</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>0.53571428571428503</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>120</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>0.97222222222222199</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>0.32483771443366999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>123</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>0.22764227642276399</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -14905,12 +14905,12 @@
         <v>0.433317631483078</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>0.25974025974025899</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -15010,46 +15010,46 @@
         <v>1.0182511806487999</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="319" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="317" t="s">
         <v>271</v>
       </c>
-      <c r="B65" s="319"/>
-      <c r="C65" s="319"/>
-      <c r="D65" s="319"/>
-      <c r="E65" s="319"/>
-      <c r="F65" s="319"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="317"/>
+      <c r="C65" s="317"/>
+      <c r="D65" s="317"/>
+      <c r="E65" s="317"/>
+      <c r="F65" s="317"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="317" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="317"/>
+      <c r="C71" s="318"/>
       <c r="D71" s="3" t="s">
         <v>35</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="2" t="s">
         <v>110</v>
@@ -15078,12 +15078,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>0.61290322580645096</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>113</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>0.94047619047619002</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>114</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>118</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>0.87096774193548299</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>119</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>0.53571428571428503</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>120</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>0.97222222222222199</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>0.22764227642276399</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -15303,7 +15303,7 @@
         <v>0.433317631483078</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -15323,12 +15323,12 @@
         <v>1.0182511806487999</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>115</v>
       </c>
@@ -15388,7 +15388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>0.25974025974025899</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -15428,41 +15428,41 @@
         <v>0.32483771443366999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="319" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="317" t="s">
         <v>207</v>
       </c>
-      <c r="B93" s="319"/>
-      <c r="C93" s="319"/>
-      <c r="D93" s="319"/>
-      <c r="E93" s="319"/>
-      <c r="F93" s="319"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="317"/>
+      <c r="C93" s="317"/>
+      <c r="D93" s="317"/>
+      <c r="E93" s="317"/>
+      <c r="F93" s="317"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B99" s="317" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B99" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C99" s="317"/>
+      <c r="C99" s="318"/>
       <c r="D99" s="3" t="s">
         <v>35</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="2" t="s">
         <v>110</v>
@@ -15491,12 +15491,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>0.61290322580645096</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -15536,7 +15536,7 @@
         <v>0.94047619047619002</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>0.87096774193548299</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>0.53571428571428503</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>0.97222222222222199</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>0.22764227642276399</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>0.433317631483078</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>1.0182511806487999</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>103</v>
       </c>
@@ -15756,12 +15756,12 @@
         <v>0.32483771443366999</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -15801,7 +15801,7 @@
         <v>0.25974025974025899</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -15841,41 +15841,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="319" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="317" t="s">
         <v>167</v>
       </c>
-      <c r="B126" s="319"/>
-      <c r="C126" s="319"/>
-      <c r="D126" s="319"/>
-      <c r="E126" s="319"/>
-      <c r="F126" s="319"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B126" s="317"/>
+      <c r="C126" s="317"/>
+      <c r="D126" s="317"/>
+      <c r="E126" s="317"/>
+      <c r="F126" s="317"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B133" s="317" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B133" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="317"/>
+      <c r="C133" s="318"/>
       <c r="D133" s="3" t="s">
         <v>35</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="2" t="s">
         <v>110</v>
@@ -15904,12 +15904,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>112</v>
       </c>
@@ -15929,7 +15929,7 @@
         <v>0.61290322580645096</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>113</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>0.94047619047619002</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>114</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>116</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>118</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>0.87096774193548299</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>119</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>0.53571428571428503</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>120</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>0.97222222222222199</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>123</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>124</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>125</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>0.22764227642276399</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>126</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>0.433317631483078</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>127</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>1.0182511806487999</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -16169,12 +16169,12 @@
         <v>0.32483771443366999</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>115</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>117</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>0.25974025974025899</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>122</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>121</v>
       </c>
@@ -16280,76 +16280,76 @@
       <selection activeCell="E180" sqref="E180:F181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="16.75" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="17.9140625" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="317" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="317"/>
+      <c r="C14" s="318"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>139</v>
@@ -16367,12 +16367,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -16392,7 +16392,7 @@
         <v>0.99006622516556197</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>0.99912714576665695</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>0.528417371028854</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>154</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>0.89959363359295597</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>155</v>
       </c>
@@ -16472,7 +16472,7 @@
         <v>0.84957020057306498</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>156</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>0.298579073629821</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>157</v>
       </c>
@@ -16512,12 +16512,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>158</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>0.83458646616541299</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>0.99672489082969395</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>0.99944475291504697</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>0.86312738769595498</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>4.74880151450634E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>3.8766428828239399E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>2.5877237319946199E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>2.4483660236001001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>153</v>
       </c>
@@ -16717,97 +16717,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="319" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="317" t="s">
         <v>292</v>
       </c>
-      <c r="B38" s="319"/>
-      <c r="C38" s="319"/>
-      <c r="D38" s="319"/>
-      <c r="E38" s="319"/>
-      <c r="F38" s="319"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="317"/>
+      <c r="C38" s="317"/>
+      <c r="D38" s="317"/>
+      <c r="E38" s="317"/>
+      <c r="F38" s="317"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
         <v>16</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
         <v>139</v>
@@ -16834,12 +16834,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>149</v>
       </c>
@@ -16859,12 +16859,12 @@
         <v>0.99944475291504697</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>154</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>0.89959363359295597</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>158</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>0.83458646616541299</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>155</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>0.84957020057306498</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>156</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>0.298579073629821</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>147</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>0.99672489082969395</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>148</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>151</v>
       </c>
@@ -17004,7 +17004,7 @@
         <v>0.86312738769595498</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>146</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>0.99006622516556197</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>150</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>0.99912714576665695</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>152</v>
       </c>
@@ -17064,7 +17064,7 @@
         <v>0.528417371028854</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>157</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>142</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>4.74880151450634E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
         <v>143</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>3.8766428828239399E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>144</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>2.5877237319946199E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>145</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>2.4483660236001001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>153</v>
       </c>
@@ -17184,37 +17184,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="319" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="317" t="s">
         <v>277</v>
       </c>
-      <c r="B92" s="319"/>
-      <c r="C92" s="319"/>
-      <c r="D92" s="319"/>
-      <c r="E92" s="319"/>
-      <c r="F92" s="319"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="317"/>
+      <c r="C92" s="317"/>
+      <c r="D92" s="317"/>
+      <c r="E92" s="317"/>
+      <c r="F92" s="317"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>282</v>
       </c>
@@ -17224,7 +17224,7 @@
       <c r="E97"/>
       <c r="F97"/>
     </row>
-    <row r="98" spans="1:6" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>283</v>
       </c>
@@ -17234,7 +17234,7 @@
       <c r="E98"/>
       <c r="F98"/>
     </row>
-    <row r="99" spans="1:6" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>284</v>
       </c>
@@ -17244,7 +17244,7 @@
       <c r="E99"/>
       <c r="F99"/>
     </row>
-    <row r="100" spans="1:6" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>285</v>
       </c>
@@ -17254,7 +17254,7 @@
       <c r="E100"/>
       <c r="F100"/>
     </row>
-    <row r="101" spans="1:6" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>286</v>
       </c>
@@ -17264,7 +17264,7 @@
       <c r="E101"/>
       <c r="F101"/>
     </row>
-    <row r="102" spans="1:6" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>287</v>
       </c>
@@ -17274,7 +17274,7 @@
       <c r="E102"/>
       <c r="F102"/>
     </row>
-    <row r="103" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>288</v>
       </c>
@@ -17284,7 +17284,7 @@
       <c r="E103"/>
       <c r="F103"/>
     </row>
-    <row r="104" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>289</v>
       </c>
@@ -17294,7 +17294,7 @@
       <c r="E104"/>
       <c r="F104"/>
     </row>
-    <row r="105" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>290</v>
       </c>
@@ -17304,7 +17304,7 @@
       <c r="E105"/>
       <c r="F105"/>
     </row>
-    <row r="106" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>291</v>
       </c>
@@ -17314,7 +17314,7 @@
       <c r="E106"/>
       <c r="F106"/>
     </row>
-    <row r="107" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -17322,17 +17322,17 @@
       <c r="E107"/>
       <c r="F107"/>
     </row>
-    <row r="108" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108"/>
-      <c r="B108" s="317" t="s">
+      <c r="B108" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C108" s="317"/>
+      <c r="C108" s="318"/>
       <c r="D108" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="2" t="s">
         <v>139</v>
@@ -17350,7 +17350,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -17360,7 +17360,7 @@
       <c r="E110"/>
       <c r="F110"/>
     </row>
-    <row r="111" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>154</v>
       </c>
@@ -17380,7 +17380,7 @@
         <v>0.89959363359295597</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>153</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>148</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
         <v>9</v>
       </c>
@@ -17430,7 +17430,7 @@
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
         <v>146</v>
       </c>
@@ -17450,7 +17450,7 @@
         <v>0.99006622516556197</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
         <v>150</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>0.99912714576665695</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
         <v>152</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>0.528417371028854</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
         <v>158</v>
       </c>
@@ -17510,7 +17510,7 @@
         <v>0.83458646616541299</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
         <v>156</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>0.298579073629821</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
         <v>155</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>0.84957020057306498</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
         <v>143</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>3.8766428828239399E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
         <v>147</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>0.99672489082969395</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
         <v>149</v>
       </c>
@@ -17610,7 +17610,7 @@
         <v>0.99944475291504697</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
         <v>144</v>
       </c>
@@ -17630,7 +17630,7 @@
         <v>2.5877237319946199E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
         <v>145</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>2.4483660236001001E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
         <v>151</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>0.86312738769595498</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
         <v>157</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
         <v>142</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>4.74880151450634E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>207</v>
       </c>
@@ -17720,47 +17720,47 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B141" s="10" t="s">
         <v>16</v>
       </c>
@@ -17777,7 +17777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="2" t="s">
         <v>139</v>
@@ -17795,12 +17795,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -17820,7 +17820,7 @@
         <v>0.99006622516556197</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -17840,7 +17840,7 @@
         <v>0.99944475291504697</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>142</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>4.74880151450634E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>143</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>3.8766428828239399E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -17900,7 +17900,7 @@
         <v>0.89959363359295597</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -17940,7 +17940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>144</v>
       </c>
@@ -17960,7 +17960,7 @@
         <v>2.5877237319946199E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>145</v>
       </c>
@@ -17980,12 +17980,12 @@
         <v>2.4483660236001001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>150</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>0.99912714576665695</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>0.83458646616541299</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -18045,7 +18045,7 @@
         <v>0.528417371028854</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>147</v>
       </c>
@@ -18065,7 +18065,7 @@
         <v>0.99672489082969395</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>151</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>0.86312738769595498</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>155</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>0.84957020057306498</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>156</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>0.298579073629821</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>157</v>
       </c>
@@ -18145,83 +18145,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="319" t="s">
+    <row r="163" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="317" t="s">
         <v>167</v>
       </c>
-      <c r="B165" s="319"/>
-      <c r="C165" s="319"/>
-      <c r="D165" s="319"/>
-      <c r="E165" s="319"/>
-      <c r="F165" s="319"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B165" s="317"/>
+      <c r="C165" s="317"/>
+      <c r="D165" s="317"/>
+      <c r="E165" s="317"/>
+      <c r="F165" s="317"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B180" s="10" t="s">
         <v>16</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="2" t="s">
         <v>139</v>
@@ -18256,12 +18256,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>155</v>
       </c>
@@ -18281,7 +18281,7 @@
         <v>0.84957020057306498</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>151</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>0.86312738769595498</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>153</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>145</v>
       </c>
@@ -18341,12 +18341,12 @@
         <v>2.4483660236001001E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>154</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>0.89959363359295597</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>142</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>4.74880151450634E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>143</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>3.8766428828239399E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>157</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>144</v>
       </c>
@@ -18446,7 +18446,7 @@
         <v>2.5877237319946199E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>150</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>0.99912714576665695</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>156</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>0.298579073629821</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>149</v>
       </c>
@@ -18506,7 +18506,7 @@
         <v>0.99944475291504697</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>146</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>0.99006622516556197</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>147</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>0.99672489082969395</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>148</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>152</v>
       </c>
@@ -18586,7 +18586,7 @@
         <v>0.528417371028854</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>158</v>
       </c>
@@ -18621,9 +18621,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18844,27 +18847,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC621D1A-3131-4FF1-8F01-9E4D11D84AC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D6D032-D4B0-4C74-9368-5667DE32D937}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="93bde6d4-e56b-4fcf-99c2-d1b45f9f11df"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3e3a54b7-d3a5-41b9-9dd4-7903b7171e3a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18889,9 +18880,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D6D032-D4B0-4C74-9368-5667DE32D937}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC621D1A-3131-4FF1-8F01-9E4D11D84AC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="93bde6d4-e56b-4fcf-99c2-d1b45f9f11df"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3e3a54b7-d3a5-41b9-9dd4-7903b7171e3a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>